--- a/src/test/java/DemoQA/TestData.xlsx
+++ b/src/test/java/DemoQA/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>Home Page</t>
   </si>
@@ -286,12 +286,6 @@
     <t>ValidUsername</t>
   </si>
   <si>
-    <t>masajemacka1!</t>
-  </si>
-  <si>
-    <t>MASAJEMACKA1!</t>
-  </si>
-  <si>
     <t>Masajemacka1</t>
   </si>
   <si>
@@ -302,12 +296,6 @@
   </si>
   <si>
     <t>Masa je macka1!</t>
-  </si>
-  <si>
-    <t>dunaveplavi30!</t>
-  </si>
-  <si>
-    <t>DUNAVEPLAVI30!</t>
   </si>
   <si>
     <t xml:space="preserve">Dunaveplavi30 </t>
@@ -375,8 +363,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +390,60 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,14 +455,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -413,64 +463,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,6 +484,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -496,20 +498,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -520,187 +508,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,26 +704,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,8 +728,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -779,11 +752,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,19 +799,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,127 +821,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,7 +1271,7 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1637,10 +1625,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1694,7 +1682,7 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1702,7 +1690,7 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1723,49 +1711,17 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1780,7 +1736,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1792,18 +1748,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
